--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rfce3343b4b1646a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb7854184778d4a5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb7854184778d4a5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R55c8e3c482d44c2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R55c8e3c482d44c2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R2361812894b84ea7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R2361812894b84ea7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Raae0585774cf4a59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Raae0585774cf4a59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R50f4285281c34faf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R50f4285281c34faf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R8a19166a48634f5c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R8a19166a48634f5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rba615aaaaf2d449b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rba615aaaaf2d449b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R72cde2806c9f4449"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R72cde2806c9f4449"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R247fc272ce2244df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R247fc272ce2244df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R551013f76dc24765"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R551013f76dc24765"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rdd72d0779e0140e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rdd72d0779e0140e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R98db0b8ab5d848f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/076_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R98db0b8ab5d848f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7a84c772d2d944a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
